--- a/Assets/Common Techniques/Referencing/Referencing.xlsx
+++ b/Assets/Common Techniques/Referencing/Referencing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enginoobz\Desktop\unity projects\Unity Design Patterns\Assets\Common Techniques\Referencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A021B-E133-46D7-87BE-A094EA055B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A07CD6-04D6-44BD-802F-A3C8F21D7B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{6C06707F-25D5-4A50-AB45-891494CC1C31}">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{6C06707F-25D5-4A50-AB45-891494CC1C31}">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Target type</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Any</t>
   </si>
   <si>
-    <t>Serialization &amp; SO</t>
-  </si>
-  <si>
     <t>Find API</t>
   </si>
   <si>
@@ -322,6 +319,12 @@
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>Serialization (type) &amp; Create</t>
+  </si>
+  <si>
+    <t>Serialization &amp; SO variable</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,13 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,13 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,9 +503,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,16 +521,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +541,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,33 +846,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="25.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5"/>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -877,13 +883,13 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -902,500 +908,522 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="23" t="s">
+      <c r="I18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="19" t="s">
+      <c r="E21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="21" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="21" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="H10:H12"/>
+  <mergeCells count="19">
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:G4"/>
@@ -1404,10 +1432,12 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
